--- a/studentdemo.xlsx
+++ b/studentdemo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\CPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E229058-3D99-4AEC-A729-D6452CE2CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E66AC-9345-4ED7-BCFB-C7FC52157294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49476ED0-3312-43B0-8A31-2E2DD8A26157}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{49476ED0-3312-43B0-8A31-2E2DD8A26157}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>rollnumber</t>
   </si>
@@ -48,22 +48,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>MB12</t>
-  </si>
-  <si>
-    <t>Immanuvel</t>
-  </si>
-  <si>
-    <t>Immanu</t>
-  </si>
-  <si>
-    <t>MB18</t>
-  </si>
-  <si>
-    <t>Jothi Sree</t>
-  </si>
-  <si>
-    <t>Jothi</t>
+    <t>MB100</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>ram</t>
   </si>
 </sst>
 </file>
@@ -427,7 +418,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,24 +445,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">

--- a/studentdemo.xlsx
+++ b/studentdemo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\CPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97809F9F-6825-4B49-99C4-C532B88AE506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62F432-644B-4DDF-8679-EF12EAFB5DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{49476ED0-3312-43B0-8A31-2E2DD8A26157}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49476ED0-3312-43B0-8A31-2E2DD8A26157}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="7">
   <si>
     <t>rollnumber</t>
   </si>
@@ -51,13 +51,10 @@
     <t/>
   </si>
   <si>
-    <t>22ITR000</t>
+    <t>22ITR035</t>
   </si>
   <si>
-    <t>SVG</t>
-  </si>
-  <si>
-    <t>krishna</t>
+    <t>Immanu</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
